--- a/fra-ita-eng/lexicon.xlsx
+++ b/fra-ita-eng/lexicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>FRA</t>
   </si>
@@ -49,6 +49,72 @@
   </si>
   <si>
     <t>Numero Labo</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Fe</t>
+  </si>
+  <si>
+    <t>Bi</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Ni</t>
+  </si>
+  <si>
+    <t>Ag</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Zn</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Ca</t>
+  </si>
+  <si>
+    <t>Ba</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Mg</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>TOT</t>
   </si>
 </sst>
 </file>
@@ -90,23 +156,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -395,183 +465,313 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/fra-ita-eng/lexicon.xlsx
+++ b/fra-ita-eng/lexicon.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t>FRA</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>TOT</t>
+  </si>
+  <si>
+    <t>ITI</t>
   </si>
 </sst>
 </file>
@@ -465,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -489,285 +492,296 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/fra-ita-eng/lexicon.xlsx
+++ b/fra-ita-eng/lexicon.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
